--- a/natmiOut/OldD4/LR-pairs_lrc2p/C3-Itgb2.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/C3-Itgb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,55 +531,55 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.30954840389418</v>
+        <v>0.5236730000000001</v>
       </c>
       <c r="H2">
-        <v>0.30954840389418</v>
+        <v>1.571019</v>
       </c>
       <c r="I2">
-        <v>0.0009304846427813607</v>
+        <v>0.001411687926676084</v>
       </c>
       <c r="J2">
-        <v>0.0009304846427813607</v>
+        <v>0.001412631582657676</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>88.2823593152297</v>
+        <v>0.1439186666666667</v>
       </c>
       <c r="N2">
-        <v>88.2823593152297</v>
+        <v>0.431756</v>
       </c>
       <c r="O2">
-        <v>0.410604801657064</v>
+        <v>0.0006023827659685291</v>
       </c>
       <c r="P2">
-        <v>0.410604801657064</v>
+        <v>0.0006028968122478276</v>
       </c>
       <c r="Q2">
-        <v>27.32766341804184</v>
+        <v>0.07536631992933335</v>
       </c>
       <c r="R2">
-        <v>27.32766341804184</v>
+        <v>0.6782968793640001</v>
       </c>
       <c r="S2">
-        <v>0.0003820614621941846</v>
+        <v>8.503764779555173E-07</v>
       </c>
       <c r="T2">
-        <v>0.0003820614621941846</v>
+        <v>8.516710780649165E-07</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,60 +593,60 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.30954840389418</v>
+        <v>0.5236730000000001</v>
       </c>
       <c r="H3">
-        <v>0.30954840389418</v>
+        <v>1.571019</v>
       </c>
       <c r="I3">
-        <v>0.0009304846427813607</v>
+        <v>0.001411687926676084</v>
       </c>
       <c r="J3">
-        <v>0.0009304846427813607</v>
+        <v>0.001412631582657676</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>126.723307834671</v>
+        <v>0.1134506666666667</v>
       </c>
       <c r="N3">
-        <v>126.723307834671</v>
+        <v>0.340352</v>
       </c>
       <c r="O3">
-        <v>0.589395198342936</v>
+        <v>0.0004748565837253468</v>
       </c>
       <c r="P3">
-        <v>0.589395198342936</v>
+        <v>0.0004752618049133599</v>
       </c>
       <c r="Q3">
-        <v>39.22699767641324</v>
+        <v>0.05941105096533333</v>
       </c>
       <c r="R3">
-        <v>39.22699767641324</v>
+        <v>0.5346994586880001</v>
       </c>
       <c r="S3">
-        <v>0.000548423180587176</v>
+        <v>6.703493061477229E-07</v>
       </c>
       <c r="T3">
-        <v>0.000548423180587176</v>
+        <v>6.713698356515033E-07</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -658,57 +658,57 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>275.959470594142</v>
+        <v>0.5236730000000001</v>
       </c>
       <c r="H4">
-        <v>275.959470594142</v>
+        <v>1.571019</v>
       </c>
       <c r="I4">
-        <v>0.8295182471872904</v>
+        <v>0.001411687926676084</v>
       </c>
       <c r="J4">
-        <v>0.8295182471872904</v>
+        <v>0.001412631582657676</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>88.2823593152297</v>
+        <v>99.31538866666666</v>
       </c>
       <c r="N4">
-        <v>88.2823593152297</v>
+        <v>297.946166</v>
       </c>
       <c r="O4">
-        <v>0.410604801657064</v>
+        <v>0.4156922789371741</v>
       </c>
       <c r="P4">
-        <v>0.410604801657064</v>
+        <v>0.4160470119763526</v>
       </c>
       <c r="Q4">
-        <v>24362.35313943261</v>
+        <v>52.00878752923933</v>
       </c>
       <c r="R4">
-        <v>24362.35313943261</v>
+        <v>468.0790877631541</v>
       </c>
       <c r="S4">
-        <v>0.3406041753572527</v>
+        <v>0.0005868277713880754</v>
       </c>
       <c r="T4">
-        <v>0.3406041753572527</v>
+        <v>0.000587721148988152</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -720,57 +720,57 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>275.959470594142</v>
+        <v>0.5236730000000001</v>
       </c>
       <c r="H5">
-        <v>275.959470594142</v>
+        <v>1.571019</v>
       </c>
       <c r="I5">
-        <v>0.8295182471872904</v>
+        <v>0.001411687926676084</v>
       </c>
       <c r="J5">
-        <v>0.8295182471872904</v>
+        <v>0.001412631582657676</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>126.723307834671</v>
+        <v>138.7317683333333</v>
       </c>
       <c r="N5">
-        <v>126.723307834671</v>
+        <v>416.195305</v>
       </c>
       <c r="O5">
-        <v>0.589395198342936</v>
+        <v>0.5806725998226211</v>
       </c>
       <c r="P5">
-        <v>0.589395198342936</v>
+        <v>0.5811681196254651</v>
       </c>
       <c r="Q5">
-        <v>34970.49694199429</v>
+        <v>72.65008131842167</v>
       </c>
       <c r="R5">
-        <v>34970.49694199429</v>
+        <v>653.850731865795</v>
       </c>
       <c r="S5">
-        <v>0.4889140718300376</v>
+        <v>0.0008197284985212071</v>
       </c>
       <c r="T5">
-        <v>0.4889140718300376</v>
+        <v>0.0008209764406167064</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,60 +779,60 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>18.8501770556849</v>
+        <v>0.5236730000000001</v>
       </c>
       <c r="H6">
-        <v>18.8501770556849</v>
+        <v>1.571019</v>
       </c>
       <c r="I6">
-        <v>0.05666254467272393</v>
+        <v>0.001411687926676084</v>
       </c>
       <c r="J6">
-        <v>0.05666254467272393</v>
+        <v>0.001412631582657676</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M6">
-        <v>88.2823593152297</v>
+        <v>0.6111180000000001</v>
       </c>
       <c r="N6">
-        <v>88.2823593152297</v>
+        <v>1.222236</v>
       </c>
       <c r="O6">
-        <v>0.410604801657064</v>
+        <v>0.002557881890510999</v>
       </c>
       <c r="P6">
-        <v>0.410604801657064</v>
+        <v>0.001706709781021076</v>
       </c>
       <c r="Q6">
-        <v>1664.138103985673</v>
+        <v>0.320025996414</v>
       </c>
       <c r="R6">
-        <v>1664.138103985673</v>
+        <v>1.920155978484</v>
       </c>
       <c r="S6">
-        <v>0.02326591291672834</v>
+        <v>3.610930982697773E-06</v>
       </c>
       <c r="T6">
-        <v>0.02326591291672834</v>
+        <v>2.410952139101139E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -841,60 +841,60 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>18.8501770556849</v>
+        <v>290.8976950000001</v>
       </c>
       <c r="H7">
-        <v>18.8501770556849</v>
+        <v>872.6930850000001</v>
       </c>
       <c r="I7">
-        <v>0.05666254467272393</v>
+        <v>0.7841854820267643</v>
       </c>
       <c r="J7">
-        <v>0.05666254467272393</v>
+        <v>0.78470967813754</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>126.723307834671</v>
+        <v>0.1439186666666667</v>
       </c>
       <c r="N7">
-        <v>126.723307834671</v>
+        <v>0.431756</v>
       </c>
       <c r="O7">
-        <v>0.589395198342936</v>
+        <v>0.0006023827659685291</v>
       </c>
       <c r="P7">
-        <v>0.589395198342936</v>
+        <v>0.0006028968122478276</v>
       </c>
       <c r="Q7">
-        <v>2388.75678976561</v>
+        <v>41.86560840080667</v>
       </c>
       <c r="R7">
-        <v>2388.75678976561</v>
+        <v>376.79047560726</v>
       </c>
       <c r="S7">
-        <v>0.03339663175599559</v>
+        <v>0.0004723798196956465</v>
       </c>
       <c r="T7">
-        <v>0.03339663175599559</v>
+        <v>0.0004730989634891417</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,60 +903,60 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>37.0042508650679</v>
+        <v>290.8976950000001</v>
       </c>
       <c r="H8">
-        <v>37.0042508650679</v>
+        <v>872.6930850000001</v>
       </c>
       <c r="I8">
-        <v>0.1112326431485824</v>
+        <v>0.7841854820267643</v>
       </c>
       <c r="J8">
-        <v>0.1112326431485824</v>
+        <v>0.78470967813754</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>88.2823593152297</v>
+        <v>0.1134506666666667</v>
       </c>
       <c r="N8">
-        <v>88.2823593152297</v>
+        <v>0.340352</v>
       </c>
       <c r="O8">
-        <v>0.410604801657064</v>
+        <v>0.0004748565837253468</v>
       </c>
       <c r="P8">
-        <v>0.410604801657064</v>
+        <v>0.0004752618049133599</v>
       </c>
       <c r="Q8">
-        <v>3266.822571060824</v>
+        <v>33.00253742954667</v>
       </c>
       <c r="R8">
-        <v>3266.822571060824</v>
+        <v>297.02283686592</v>
       </c>
       <c r="S8">
-        <v>0.04567265737781464</v>
+        <v>0.0003723756390022436</v>
       </c>
       <c r="T8">
-        <v>0.04567265737781464</v>
+        <v>0.000372942537964629</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>37.0042508650679</v>
+        <v>290.8976950000001</v>
       </c>
       <c r="H9">
-        <v>37.0042508650679</v>
+        <v>872.6930850000001</v>
       </c>
       <c r="I9">
-        <v>0.1112326431485824</v>
+        <v>0.7841854820267643</v>
       </c>
       <c r="J9">
-        <v>0.1112326431485824</v>
+        <v>0.78470967813754</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>126.723307834671</v>
+        <v>99.31538866666666</v>
       </c>
       <c r="N9">
-        <v>126.723307834671</v>
+        <v>297.946166</v>
       </c>
       <c r="O9">
-        <v>0.589395198342936</v>
+        <v>0.4156922789371741</v>
       </c>
       <c r="P9">
-        <v>0.589395198342936</v>
+        <v>0.4160470119763526</v>
       </c>
       <c r="Q9">
-        <v>4689.301073565391</v>
+        <v>28890.61764116246</v>
       </c>
       <c r="R9">
-        <v>4689.301073565391</v>
+        <v>260015.5587704621</v>
       </c>
       <c r="S9">
-        <v>0.06555998577076771</v>
+        <v>0.325979850133152</v>
       </c>
       <c r="T9">
-        <v>0.06555998577076771</v>
+        <v>0.3264761168580489</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,117 +1027,1047 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.550935507225664</v>
+        <v>290.8976950000001</v>
       </c>
       <c r="H10">
-        <v>0.550935507225664</v>
+        <v>872.6930850000001</v>
       </c>
       <c r="I10">
-        <v>0.001656080348621943</v>
+        <v>0.7841854820267643</v>
       </c>
       <c r="J10">
-        <v>0.001656080348621943</v>
+        <v>0.78470967813754</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>88.2823593152297</v>
+        <v>138.7317683333333</v>
       </c>
       <c r="N10">
-        <v>88.2823593152297</v>
+        <v>416.195305</v>
       </c>
       <c r="O10">
-        <v>0.410604801657064</v>
+        <v>0.5806725998226211</v>
       </c>
       <c r="P10">
-        <v>0.410604801657064</v>
+        <v>0.5811681196254651</v>
       </c>
       <c r="Q10">
-        <v>48.6378864084144</v>
+        <v>40356.75163144066</v>
       </c>
       <c r="R10">
-        <v>48.6378864084144</v>
+        <v>363210.7646829659</v>
       </c>
       <c r="S10">
-        <v>0.0006799945430740744</v>
+        <v>0.4553550225916365</v>
       </c>
       <c r="T10">
-        <v>0.0006799945430740744</v>
+        <v>0.4560482480950981</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>290.8976950000001</v>
+      </c>
+      <c r="H11">
+        <v>872.6930850000001</v>
+      </c>
+      <c r="I11">
+        <v>0.7841854820267643</v>
+      </c>
+      <c r="J11">
+        <v>0.78470967813754</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.5</v>
+      </c>
+      <c r="M11">
+        <v>0.6111180000000001</v>
+      </c>
+      <c r="N11">
+        <v>1.222236</v>
+      </c>
+      <c r="O11">
+        <v>0.002557881890510999</v>
+      </c>
+      <c r="P11">
+        <v>0.001706709781021076</v>
+      </c>
+      <c r="Q11">
+        <v>177.7728175730101</v>
+      </c>
+      <c r="R11">
+        <v>1066.63690543806</v>
+      </c>
+      <c r="S11">
+        <v>0.002005853843277899</v>
+      </c>
+      <c r="T11">
+        <v>0.00133927168293924</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>38.68424166666667</v>
+      </c>
+      <c r="H12">
+        <v>116.052725</v>
+      </c>
+      <c r="I12">
+        <v>0.1042827812651277</v>
+      </c>
+      <c r="J12">
+        <v>0.1043524900644015</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.1439186666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.431756</v>
+      </c>
+      <c r="O12">
+        <v>0.0006023827659685291</v>
+      </c>
+      <c r="P12">
+        <v>0.0006028968122478276</v>
+      </c>
+      <c r="Q12">
+        <v>5.567384481677777</v>
+      </c>
+      <c r="R12">
+        <v>50.1064603351</v>
+      </c>
+      <c r="S12">
+        <v>6.281815022137873E-05</v>
+      </c>
+      <c r="T12">
+        <v>6.291378360995078E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>38.68424166666667</v>
+      </c>
+      <c r="H13">
+        <v>116.052725</v>
+      </c>
+      <c r="I13">
+        <v>0.1042827812651277</v>
+      </c>
+      <c r="J13">
+        <v>0.1043524900644015</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.1134506666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.340352</v>
+      </c>
+      <c r="O13">
+        <v>0.0004748565837253468</v>
+      </c>
+      <c r="P13">
+        <v>0.0004752618049133599</v>
+      </c>
+      <c r="Q13">
+        <v>4.388753006577777</v>
+      </c>
+      <c r="R13">
+        <v>39.49877705919999</v>
+      </c>
+      <c r="S13">
+        <v>4.951936525293614E-05</v>
+      </c>
+      <c r="T13">
+        <v>4.959475277521093E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>38.68424166666667</v>
+      </c>
+      <c r="H14">
+        <v>116.052725</v>
+      </c>
+      <c r="I14">
+        <v>0.1042827812651277</v>
+      </c>
+      <c r="J14">
+        <v>0.1043524900644015</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>99.31538866666666</v>
+      </c>
+      <c r="N14">
+        <v>297.946166</v>
+      </c>
+      <c r="O14">
+        <v>0.4156922789371741</v>
+      </c>
+      <c r="P14">
+        <v>0.4160470119763526</v>
+      </c>
+      <c r="Q14">
+        <v>3841.940496400261</v>
+      </c>
+      <c r="R14">
+        <v>34577.46446760235</v>
+      </c>
+      <c r="S14">
+        <v>0.04334954699800778</v>
+      </c>
+      <c r="T14">
+        <v>0.04341554168358628</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0.550935507225664</v>
-      </c>
-      <c r="H11">
-        <v>0.550935507225664</v>
-      </c>
-      <c r="I11">
-        <v>0.001656080348621943</v>
-      </c>
-      <c r="J11">
-        <v>0.001656080348621943</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>126.723307834671</v>
-      </c>
-      <c r="N11">
-        <v>126.723307834671</v>
-      </c>
-      <c r="O11">
-        <v>0.589395198342936</v>
-      </c>
-      <c r="P11">
-        <v>0.589395198342936</v>
-      </c>
-      <c r="Q11">
-        <v>69.81636987920842</v>
-      </c>
-      <c r="R11">
-        <v>69.81636987920842</v>
-      </c>
-      <c r="S11">
-        <v>0.0009760858055478688</v>
-      </c>
-      <c r="T11">
-        <v>0.0009760858055478688</v>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>38.68424166666667</v>
+      </c>
+      <c r="H15">
+        <v>116.052725</v>
+      </c>
+      <c r="I15">
+        <v>0.1042827812651277</v>
+      </c>
+      <c r="J15">
+        <v>0.1043524900644015</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>138.7317683333333</v>
+      </c>
+      <c r="N15">
+        <v>416.195305</v>
+      </c>
+      <c r="O15">
+        <v>0.5806725998226211</v>
+      </c>
+      <c r="P15">
+        <v>0.5811681196254651</v>
+      </c>
+      <c r="Q15">
+        <v>5366.73325305068</v>
+      </c>
+      <c r="R15">
+        <v>48300.59927745612</v>
+      </c>
+      <c r="S15">
+        <v>0.06055415371395543</v>
+      </c>
+      <c r="T15">
+        <v>0.06064634042896327</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>38.68424166666667</v>
+      </c>
+      <c r="H16">
+        <v>116.052725</v>
+      </c>
+      <c r="I16">
+        <v>0.1042827812651277</v>
+      </c>
+      <c r="J16">
+        <v>0.1043524900644015</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.5</v>
+      </c>
+      <c r="M16">
+        <v>0.6111180000000001</v>
+      </c>
+      <c r="N16">
+        <v>1.222236</v>
+      </c>
+      <c r="O16">
+        <v>0.002557881890510999</v>
+      </c>
+      <c r="P16">
+        <v>0.001706709781021076</v>
+      </c>
+      <c r="Q16">
+        <v>23.64063639885</v>
+      </c>
+      <c r="R16">
+        <v>141.8438183931</v>
+      </c>
+      <c r="S16">
+        <v>0.0002667430376901898</v>
+      </c>
+      <c r="T16">
+        <v>0.0001780994154668188</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>40.106198</v>
+      </c>
+      <c r="H17">
+        <v>120.318594</v>
+      </c>
+      <c r="I17">
+        <v>0.1081160103757125</v>
+      </c>
+      <c r="J17">
+        <v>0.1081882815327926</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.1439186666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.431756</v>
+      </c>
+      <c r="O17">
+        <v>0.0006023827659685291</v>
+      </c>
+      <c r="P17">
+        <v>0.0006028968122478276</v>
+      </c>
+      <c r="Q17">
+        <v>5.772030541229333</v>
+      </c>
+      <c r="R17">
+        <v>51.94827487106399</v>
+      </c>
+      <c r="S17">
+        <v>6.512722137560387E-05</v>
+      </c>
+      <c r="T17">
+        <v>6.522637005869118E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>40.106198</v>
+      </c>
+      <c r="H18">
+        <v>120.318594</v>
+      </c>
+      <c r="I18">
+        <v>0.1081160103757125</v>
+      </c>
+      <c r="J18">
+        <v>0.1081882815327926</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.1134506666666667</v>
+      </c>
+      <c r="N18">
+        <v>0.340352</v>
+      </c>
+      <c r="O18">
+        <v>0.0004748565837253468</v>
+      </c>
+      <c r="P18">
+        <v>0.0004752618049133599</v>
+      </c>
+      <c r="Q18">
+        <v>4.550074900565333</v>
+      </c>
+      <c r="R18">
+        <v>40.950674105088</v>
+      </c>
+      <c r="S18">
+        <v>5.133959933302497E-05</v>
+      </c>
+      <c r="T18">
+        <v>5.141775795174975E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>40.106198</v>
+      </c>
+      <c r="H19">
+        <v>120.318594</v>
+      </c>
+      <c r="I19">
+        <v>0.1081160103757125</v>
+      </c>
+      <c r="J19">
+        <v>0.1081882815327926</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>99.31538866666666</v>
+      </c>
+      <c r="N19">
+        <v>297.946166</v>
+      </c>
+      <c r="O19">
+        <v>0.4156922789371741</v>
+      </c>
+      <c r="P19">
+        <v>0.4160470119763526</v>
+      </c>
+      <c r="Q19">
+        <v>3983.162642312289</v>
+      </c>
+      <c r="R19">
+        <v>35848.4637808106</v>
+      </c>
+      <c r="S19">
+        <v>0.04494299074267508</v>
+      </c>
+      <c r="T19">
+        <v>0.04501141126257478</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>40.106198</v>
+      </c>
+      <c r="H20">
+        <v>120.318594</v>
+      </c>
+      <c r="I20">
+        <v>0.1081160103757125</v>
+      </c>
+      <c r="J20">
+        <v>0.1081882815327926</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>138.7317683333333</v>
+      </c>
+      <c r="N20">
+        <v>416.195305</v>
+      </c>
+      <c r="O20">
+        <v>0.5806725998226211</v>
+      </c>
+      <c r="P20">
+        <v>0.5811681196254651</v>
+      </c>
+      <c r="Q20">
+        <v>5564.003769666796</v>
+      </c>
+      <c r="R20">
+        <v>50076.03392700116</v>
+      </c>
+      <c r="S20">
+        <v>0.06278000482731444</v>
+      </c>
+      <c r="T20">
+        <v>0.06287558014392353</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>40.106198</v>
+      </c>
+      <c r="H21">
+        <v>120.318594</v>
+      </c>
+      <c r="I21">
+        <v>0.1081160103757125</v>
+      </c>
+      <c r="J21">
+        <v>0.1081882815327926</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.5</v>
+      </c>
+      <c r="M21">
+        <v>0.6111180000000001</v>
+      </c>
+      <c r="N21">
+        <v>1.222236</v>
+      </c>
+      <c r="O21">
+        <v>0.002557881890510999</v>
+      </c>
+      <c r="P21">
+        <v>0.001706709781021076</v>
+      </c>
+      <c r="Q21">
+        <v>24.509619509364</v>
+      </c>
+      <c r="R21">
+        <v>147.057717056184</v>
+      </c>
+      <c r="S21">
+        <v>0.0002765479850143342</v>
+      </c>
+      <c r="T21">
+        <v>0.0001846459982838791</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.7434085</v>
+      </c>
+      <c r="H22">
+        <v>1.486817</v>
+      </c>
+      <c r="I22">
+        <v>0.002004038405719556</v>
+      </c>
+      <c r="J22">
+        <v>0.001336918682608127</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.1439186666666667</v>
+      </c>
+      <c r="N22">
+        <v>0.431756</v>
+      </c>
+      <c r="O22">
+        <v>0.0006023827659685291</v>
+      </c>
+      <c r="P22">
+        <v>0.0006028968122478276</v>
+      </c>
+      <c r="Q22">
+        <v>0.1069903601086667</v>
+      </c>
+      <c r="R22">
+        <v>0.6419421606519999</v>
+      </c>
+      <c r="S22">
+        <v>1.207198197944508E-06</v>
+      </c>
+      <c r="T22">
+        <v>8.060240119790052E-07</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.7434085</v>
+      </c>
+      <c r="H23">
+        <v>1.486817</v>
+      </c>
+      <c r="I23">
+        <v>0.002004038405719556</v>
+      </c>
+      <c r="J23">
+        <v>0.001336918682608127</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.1134506666666667</v>
+      </c>
+      <c r="N23">
+        <v>0.340352</v>
+      </c>
+      <c r="O23">
+        <v>0.0004748565837253468</v>
+      </c>
+      <c r="P23">
+        <v>0.0004752618049133599</v>
+      </c>
+      <c r="Q23">
+        <v>0.08434018993066666</v>
+      </c>
+      <c r="R23">
+        <v>0.506041139584</v>
+      </c>
+      <c r="S23">
+        <v>9.516308309943788E-07</v>
+      </c>
+      <c r="T23">
+        <v>6.3538638611873E-07</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.7434085</v>
+      </c>
+      <c r="H24">
+        <v>1.486817</v>
+      </c>
+      <c r="I24">
+        <v>0.002004038405719556</v>
+      </c>
+      <c r="J24">
+        <v>0.001336918682608127</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>99.31538866666666</v>
+      </c>
+      <c r="N24">
+        <v>297.946166</v>
+      </c>
+      <c r="O24">
+        <v>0.4156922789371741</v>
+      </c>
+      <c r="P24">
+        <v>0.4160470119763526</v>
+      </c>
+      <c r="Q24">
+        <v>73.83190411560366</v>
+      </c>
+      <c r="R24">
+        <v>442.991424693622</v>
+      </c>
+      <c r="S24">
+        <v>0.0008330632919511834</v>
+      </c>
+      <c r="T24">
+        <v>0.0005562210231544731</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.7434085</v>
+      </c>
+      <c r="H25">
+        <v>1.486817</v>
+      </c>
+      <c r="I25">
+        <v>0.002004038405719556</v>
+      </c>
+      <c r="J25">
+        <v>0.001336918682608127</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>138.7317683333333</v>
+      </c>
+      <c r="N25">
+        <v>416.195305</v>
+      </c>
+      <c r="O25">
+        <v>0.5806725998226211</v>
+      </c>
+      <c r="P25">
+        <v>0.5811681196254651</v>
+      </c>
+      <c r="Q25">
+        <v>103.1343757990308</v>
+      </c>
+      <c r="R25">
+        <v>618.806254794185</v>
+      </c>
+      <c r="S25">
+        <v>0.001163690191193555</v>
+      </c>
+      <c r="T25">
+        <v>0.0007769745168635195</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.7434085</v>
+      </c>
+      <c r="H26">
+        <v>1.486817</v>
+      </c>
+      <c r="I26">
+        <v>0.002004038405719556</v>
+      </c>
+      <c r="J26">
+        <v>0.001336918682608127</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.5</v>
+      </c>
+      <c r="M26">
+        <v>0.6111180000000001</v>
+      </c>
+      <c r="N26">
+        <v>1.222236</v>
+      </c>
+      <c r="O26">
+        <v>0.002557881890510999</v>
+      </c>
+      <c r="P26">
+        <v>0.001706709781021076</v>
+      </c>
+      <c r="Q26">
+        <v>0.4543103157030001</v>
+      </c>
+      <c r="R26">
+        <v>1.817241262812</v>
+      </c>
+      <c r="S26">
+        <v>5.126093545878586E-06</v>
+      </c>
+      <c r="T26">
+        <v>2.281732192037103E-06</v>
       </c>
     </row>
   </sheetData>
